--- a/pred_ohlcv/54_21/2020-01-12 ETZ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 ETZ ohlcv.xlsx
@@ -1224,7 +1224,7 @@
         <v>-628523.0601084777</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-628474.0601084777</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-628562.0019084777</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-336526.6036084777</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-614260.5028084778</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-612260.5028084778</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-645506.7165084778</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-1286333.901108477</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-1286333.901108477</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-1286288.901108477</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-1056288.901108477</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-1076950.901108477</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-1076950.901108477</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-1046551.162108477</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-1022834.177021521</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-1053552.744328787</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-961998.9420287873</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>4184182.836475524</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>3820120.688975524</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>4270149.114675524</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>4830143.393375523</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>6873172.491375522</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>6571506.836808054</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>3802657.016408054</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>4612449.556175495</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>4232126.130075496</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>4410560.380475496</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>5519562.827075495</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>5215052.950875496</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>5680024.623575496</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>5420227.826875496</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>5078981.541853494</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>5283774.249153494</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>5138947.993653494</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>4952377.754904881</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>4422413.001906451</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>5696074.511898882</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>5450022.547398882</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>5222905.327698882</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>4197499.495098881</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>3646514.962998881</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>3646514.962998881</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>3679638.832498882</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>3800617.992022631</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-12 ETZ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 ETZ ohlcv.xlsx
@@ -1224,7 +1224,7 @@
         <v>-628523.0601084777</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-628474.0601084777</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-628562.0019084777</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-614260.5028084778</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-614732.2544084778</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-724116.9028084779</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-1076950.901108477</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-1076950.901108477</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-1046551.162108477</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-1022834.177021521</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-1053552.744328787</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-961998.9420287873</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>4184182.836475524</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>3820120.688975524</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>4270149.114675524</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>4830143.393375523</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>6749375.908075522</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>6873172.491375522</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>6904710.892375521</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>6571506.836808054</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>3802657.016408054</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>4612449.556175495</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>5696074.511898882</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>5450022.547398882</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>5222905.327698882</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>4197499.495098881</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>3646514.962998881</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>3646514.962998881</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>3679638.832498882</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>3800617.992022631</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
